--- a/Day_1/data/example_data_entry.xlsx
+++ b/Day_1/data/example_data_entry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpalmer\Documents\R_Users_Workshop\PG_module\course_notes\R-A_Hitchhikers_Guide_to_Reproducible_Research\Day_1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpalmer\Documents\R_Users_Workshop\PG_module\course_notes\R-A_Hitchhikers_Guide_to_Reproducible_Research\Day_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D146" sqref="A146:D146"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>3</v>
